--- a/Documentacao/Documentacao/PlanilhaDeAlertas.xlsx
+++ b/Documentacao/Documentacao/PlanilhaDeAlertas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Project2nd\Documentacao\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73A86FE8-20BF-1C49-BB60-B3811B032615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="15320" xr2:uid="{56E7E7B9-F377-FE45-9D2A-F95BEBA02D3A}"/>
+    <workbookView xWindow="315" yWindow="465" windowWidth="24945" windowHeight="15315"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Limite</t>
   </si>
@@ -66,9 +65,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Risco de insdisponibilidade</t>
-  </si>
-  <si>
     <t>Indisponivel</t>
   </si>
   <si>
@@ -82,12 +78,15 @@
   </si>
   <si>
     <t>Impacto</t>
+  </si>
+  <si>
+    <t>70% - 80%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -119,7 +118,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -133,6 +131,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,77 +449,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878B7811-9573-7A40-BCCC-28BE9059BB81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.96</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -529,36 +530,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
         <v>0.9</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -569,23 +570,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.7</v>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.8</v>
+        <v>11</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.81</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>

--- a/Documentacao/Documentacao/PlanilhaDeAlertas.xlsx
+++ b/Documentacao/Documentacao/PlanilhaDeAlertas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Project2nd\Documentacao\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projeto de PI\Project2nd\Documentacao\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Limite</t>
   </si>
@@ -127,13 +127,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -464,11 +464,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -513,11 +513,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -534,8 +534,8 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.9</v>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -545,19 +545,19 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
+      <c r="D9" s="4">
+        <v>0.81</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -574,7 +574,7 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
@@ -585,7 +585,7 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>0.81</v>
       </c>
       <c r="E14" t="s">
